--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6CCA8E3B-9407-46A0-B10F-45BC6272A8C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB5D42F-03CE-4D48-B2E6-93C49514A6CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>28-31</t>
+  </si>
+  <si>
+    <t>32-33</t>
+  </si>
+  <si>
+    <t>34-35</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>38-39</t>
   </si>
 </sst>
 </file>
@@ -482,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,6 +697,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43167</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB5D42F-03CE-4D48-B2E6-93C49514A6CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3575EB4-581A-4720-A215-408A36B92C2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">King-Zone dragons </t>
   </si>
   <si>
-    <t>Radnummer i Test.txt</t>
-  </si>
-  <si>
     <t>1 vs 2</t>
   </si>
   <si>
@@ -90,46 +87,7 @@
     <t>4 vs 5</t>
   </si>
   <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>9-11</t>
-  </si>
-  <si>
-    <t>12-13</t>
-  </si>
-  <si>
-    <t>14-16</t>
-  </si>
-  <si>
-    <t>17-18</t>
-  </si>
-  <si>
-    <t>19-21</t>
-  </si>
-  <si>
-    <t>22-25</t>
-  </si>
-  <si>
-    <t>26-27</t>
-  </si>
-  <si>
-    <t>28-31</t>
-  </si>
-  <si>
-    <t>32-33</t>
-  </si>
-  <si>
-    <t>34-35</t>
-  </si>
-  <si>
-    <t>36-37</t>
-  </si>
-  <si>
-    <t>38-39</t>
+    <t>Antal möten</t>
   </si>
 </sst>
 </file>
@@ -173,13 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,262 +450,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43190</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43194</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43194</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43160</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43165</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43169</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43158</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43116</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43198</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43174</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43204</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43177</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43167</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43135</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43126</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15">
+      <c r="G18">
         <v>2</v>
       </c>
     </row>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3575EB4-581A-4720-A215-408A36B92C2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E37D66E-EE5A-479E-8645-1C3D66F28EC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -760,6 +760,39 @@
       </c>
       <c r="G18">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E37D66E-EE5A-479E-8645-1C3D66F28EC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B959271-BB38-467E-9BA5-DB04A2C641CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>Antal möten</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>6 vs 1</t>
+  </si>
+  <si>
+    <t>2018-01--30</t>
+  </si>
+  <si>
+    <t>6 vs 2</t>
+  </si>
+  <si>
+    <t>6 vs 3</t>
+  </si>
+  <si>
+    <t>6 vs 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 vs 5 </t>
+  </si>
+  <si>
+    <t>6 vs 5</t>
   </si>
 </sst>
 </file>
@@ -450,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +634,12 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
       <c r="Q7" t="s">
         <v>15</v>
       </c>
@@ -695,6 +725,12 @@
       <c r="G12">
         <v>2</v>
       </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -706,6 +742,12 @@
       <c r="G13">
         <v>2</v>
       </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -717,6 +759,12 @@
       <c r="G14">
         <v>2</v>
       </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -728,6 +776,12 @@
       <c r="G15">
         <v>2</v>
       </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -739,6 +793,12 @@
       <c r="G16">
         <v>2</v>
       </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -793,6 +853,61 @@
       </c>
       <c r="G21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43159</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B959271-BB38-467E-9BA5-DB04A2C641CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96E6F4CD-446D-4C10-AF04-464C41AE3843}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>6 vs 5</t>
+  </si>
+  <si>
+    <t>ROX Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 vs 1 </t>
+  </si>
+  <si>
+    <t>7 vs 1</t>
+  </si>
+  <si>
+    <t>7 vs 2</t>
+  </si>
+  <si>
+    <t>7 vs 3</t>
+  </si>
+  <si>
+    <t>7 vs 4</t>
+  </si>
+  <si>
+    <t>7 vs 5</t>
+  </si>
+  <si>
+    <t>7 vs 6</t>
   </si>
 </sst>
 </file>
@@ -474,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,6 +681,12 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
       <c r="Q8" t="s">
         <v>16</v>
       </c>
@@ -800,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43125</v>
       </c>
@@ -810,8 +840,14 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43116</v>
       </c>
@@ -821,8 +857,14 @@
       <c r="G18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43184</v>
       </c>
@@ -832,8 +874,14 @@
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43138</v>
       </c>
@@ -843,8 +891,14 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43155</v>
       </c>
@@ -854,8 +908,14 @@
       <c r="G21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43181</v>
       </c>
@@ -865,8 +925,14 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -877,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43120</v>
       </c>
@@ -888,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43176</v>
       </c>
@@ -899,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43159</v>
       </c>
@@ -907,6 +973,72 @@
         <v>27</v>
       </c>
       <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43158</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
     </row>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96E6F4CD-446D-4C10-AF04-464C41AE3843}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373834E6-12B0-4344-83F6-2192B796A8A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>7 vs 6</t>
+  </si>
+  <si>
+    <t>Jin Air Greenwings</t>
+  </si>
+  <si>
+    <t>8 vs 1</t>
+  </si>
+  <si>
+    <t>8 vs 2</t>
+  </si>
+  <si>
+    <t>8 vs 3</t>
+  </si>
+  <si>
+    <t>8 vs 4</t>
   </si>
 </sst>
 </file>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +719,12 @@
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
       <c r="Q9" t="s">
         <v>17</v>
       </c>
@@ -942,6 +963,12 @@
       <c r="G23">
         <v>2</v>
       </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -953,6 +980,12 @@
       <c r="G24">
         <v>2</v>
       </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -964,6 +997,12 @@
       <c r="G25">
         <v>2</v>
       </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -975,6 +1014,12 @@
       <c r="G26">
         <v>2</v>
       </c>
+      <c r="Q26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1040,6 +1085,50 @@
       </c>
       <c r="G32">
         <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373834E6-12B0-4344-83F6-2192B796A8A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C72C1D6-957B-4A8A-AA40-F4B2E85F7D3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C72C1D6-957B-4A8A-AA40-F4B2E85F7D3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0FA4127-B4A1-4234-814A-B12C9D5BA49E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>8 vs 4</t>
+  </si>
+  <si>
+    <t>8 vs 5</t>
+  </si>
+  <si>
+    <t>8 vs 6</t>
+  </si>
+  <si>
+    <t>8 vs 7</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,6 +1040,12 @@
       <c r="G27">
         <v>2</v>
       </c>
+      <c r="Q27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1042,6 +1057,12 @@
       <c r="G28">
         <v>3</v>
       </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1053,6 +1074,12 @@
       <c r="G29">
         <v>2</v>
       </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1128,6 +1155,39 @@
         <v>41</v>
       </c>
       <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39">
         <v>3</v>
       </c>
     </row>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0FA4127-B4A1-4234-814A-B12C9D5BA49E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{995B6BA6-E12C-4C8F-9577-AC9E8F0DA80B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -160,6 +160,63 @@
   </si>
   <si>
     <t>8 vs 7</t>
+  </si>
+  <si>
+    <t>BBQ Olivers</t>
+  </si>
+  <si>
+    <t>Kongdoo Monster</t>
+  </si>
+  <si>
+    <t>9 vs 1</t>
+  </si>
+  <si>
+    <t>9 vs 2</t>
+  </si>
+  <si>
+    <t>9 vs 3</t>
+  </si>
+  <si>
+    <t>9 vs 4</t>
+  </si>
+  <si>
+    <t>9 vs 5</t>
+  </si>
+  <si>
+    <t>9 vs 6</t>
+  </si>
+  <si>
+    <t>9 vs 7</t>
+  </si>
+  <si>
+    <t>9 vs 8</t>
+  </si>
+  <si>
+    <t>10 vs 1</t>
+  </si>
+  <si>
+    <t>10 vs 2</t>
+  </si>
+  <si>
+    <t>10 vs 3</t>
+  </si>
+  <si>
+    <t>10 vs 4</t>
+  </si>
+  <si>
+    <t>10 vs 5</t>
+  </si>
+  <si>
+    <t>10 vs 6</t>
+  </si>
+  <si>
+    <t>10 vs 7</t>
+  </si>
+  <si>
+    <t>10 vs 8</t>
+  </si>
+  <si>
+    <t>10 vs 9</t>
   </si>
 </sst>
 </file>
@@ -522,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +808,12 @@
       <c r="G10">
         <v>2</v>
       </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
       <c r="Q10" t="s">
         <v>18</v>
       </c>
@@ -768,6 +831,12 @@
       <c r="G11">
         <v>4</v>
       </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
       <c r="Q11" t="s">
         <v>19</v>
       </c>
@@ -1091,6 +1160,12 @@
       <c r="G30">
         <v>2</v>
       </c>
+      <c r="Q30" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1102,6 +1177,12 @@
       <c r="G31">
         <v>3</v>
       </c>
+      <c r="Q31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1113,8 +1194,14 @@
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43163</v>
       </c>
@@ -1124,8 +1211,14 @@
       <c r="G33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43172</v>
       </c>
@@ -1135,8 +1228,14 @@
       <c r="G34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43156</v>
       </c>
@@ -1146,8 +1245,14 @@
       <c r="G35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43174</v>
       </c>
@@ -1157,8 +1262,14 @@
       <c r="G36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43180</v>
       </c>
@@ -1168,8 +1279,14 @@
       <c r="G37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43169</v>
       </c>
@@ -1179,8 +1296,14 @@
       <c r="G38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43183</v>
       </c>
@@ -1189,6 +1312,241 @@
       </c>
       <c r="G39">
         <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43173</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43176</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>59</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>60</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>63</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43184</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{995B6BA6-E12C-4C8F-9577-AC9E8F0DA80B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{61918EA9-A487-4556-9C75-81B8B2A663C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>Lagnummer vs Lagnummer</t>
   </si>
@@ -96,9 +96,6 @@
     <t>6 vs 1</t>
   </si>
   <si>
-    <t>2018-01--30</t>
-  </si>
-  <si>
     <t>6 vs 2</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>10 vs 9</t>
+  </si>
+  <si>
+    <t>Alla datum då dokumenterade matcher använts (dessa skall icke dupliceras)</t>
   </si>
 </sst>
 </file>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,8 +613,11 @@
       <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43190</v>
       </c>
@@ -637,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43194</v>
       </c>
@@ -660,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43160</v>
       </c>
@@ -683,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43165</v>
       </c>
@@ -706,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43169</v>
       </c>
@@ -729,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43158</v>
       </c>
@@ -752,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43183</v>
       </c>
@@ -763,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>7</v>
@@ -775,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -786,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -798,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43174</v>
       </c>
@@ -809,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10">
         <v>9</v>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43204</v>
       </c>
@@ -832,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O11">
         <v>10</v>
@@ -844,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43177</v>
       </c>
@@ -858,10 +861,10 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43167</v>
       </c>
@@ -872,13 +875,13 @@
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43135</v>
       </c>
@@ -889,13 +892,13 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43126</v>
       </c>
@@ -906,13 +909,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43151</v>
       </c>
@@ -923,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -940,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -957,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -974,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -991,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1008,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1025,24 +1028,24 @@
         <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2">
+        <v>43130</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -1053,13 +1056,13 @@
         <v>43120</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -1070,13 +1073,13 @@
         <v>43176</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -1087,13 +1090,13 @@
         <v>43159</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -1104,13 +1107,13 @@
         <v>43155</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -1121,13 +1124,13 @@
         <v>43180</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -1138,13 +1141,13 @@
         <v>43158</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -1155,13 +1158,13 @@
         <v>43167</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -1172,13 +1175,13 @@
         <v>43172</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="Q31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -1189,13 +1192,13 @@
         <v>43165</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -1206,13 +1209,13 @@
         <v>43163</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -1223,13 +1226,13 @@
         <v>43172</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -1240,13 +1243,13 @@
         <v>43156</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -1257,13 +1260,13 @@
         <v>43174</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -1274,13 +1277,13 @@
         <v>43180</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -1291,13 +1294,13 @@
         <v>43169</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -1308,13 +1311,13 @@
         <v>43183</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -1325,13 +1328,13 @@
         <v>43173</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -1342,13 +1345,13 @@
         <v>43166</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -1359,13 +1362,13 @@
         <v>43176</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="Q42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -1376,13 +1379,13 @@
         <v>43179</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="Q43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -1393,13 +1396,13 @@
         <v>43170</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="Q44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -1410,13 +1413,13 @@
         <v>43156</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -1427,13 +1430,13 @@
         <v>43162</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="Q46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>43159</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1455,97 +1458,164 @@
         <v>43184</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43153</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43160</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43170</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43162</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43212</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43177</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43166</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43181</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>42935</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>43128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62">
         <v>2</v>
       </c>
     </row>

--- a/Matchlagringssystem LCK.xlsx
+++ b/Matchlagringssystem LCK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikar\Desktop\VS Code WS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43D292B9-6418-474D-8FF1-746535DC3230}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B9271FE-BA9D-432E-B78D-E23501C2701C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{36F6453D-5543-4270-8E36-273BDA47A596}"/>
   </bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FCFE89-7EB7-4441-828B-70387BFED5B4}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,10 +1001,13 @@
         <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="2">
         <v>43163</v>
+      </c>
+      <c r="K23" s="2">
+        <v>43120</v>
       </c>
       <c r="V23" s="2"/>
     </row>
@@ -1013,10 +1016,13 @@
         <v>34</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <v>43172</v>
+      </c>
+      <c r="K24" s="2">
+        <v>43118</v>
       </c>
       <c r="V24" s="2"/>
     </row>
@@ -1025,10 +1031,13 @@
         <v>35</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="2">
         <v>43156</v>
+      </c>
+      <c r="K25" s="2">
+        <v>43132</v>
       </c>
       <c r="V25" s="2"/>
     </row>
@@ -1037,10 +1046,13 @@
         <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="2">
         <v>43174</v>
+      </c>
+      <c r="K26" s="2">
+        <v>43152</v>
       </c>
       <c r="V26" s="2"/>
     </row>
@@ -1049,10 +1061,13 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
         <v>43180</v>
+      </c>
+      <c r="K27" s="2">
+        <v>43141</v>
       </c>
       <c r="V27" s="2"/>
     </row>
@@ -1061,10 +1076,13 @@
         <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
         <v>43169</v>
+      </c>
+      <c r="K28" s="2">
+        <v>43124</v>
       </c>
       <c r="V28" s="2"/>
     </row>
@@ -1073,10 +1091,13 @@
         <v>39</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="2">
         <v>43183</v>
+      </c>
+      <c r="K29" s="2">
+        <v>43139</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -1085,10 +1106,13 @@
         <v>42</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="2">
         <v>43173</v>
+      </c>
+      <c r="K30" s="2">
+        <v>43138</v>
       </c>
       <c r="V30" s="2"/>
     </row>
@@ -1097,10 +1121,13 @@
         <v>43</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="2">
         <v>43166</v>
+      </c>
+      <c r="K31" s="2">
+        <v>43134</v>
       </c>
       <c r="V31" s="2"/>
     </row>
@@ -1109,10 +1136,13 @@
         <v>44</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
         <v>43176</v>
+      </c>
+      <c r="K32" s="2">
+        <v>43126</v>
       </c>
       <c r="V32" s="2"/>
     </row>
